--- a/3rd_Project/Category/Book/기능,화면,테스트 문서/3th_Project_기능 정의서(이유의) .xlsx
+++ b/3rd_Project/Category/Book/기능,화면,테스트 문서/3th_Project_기능 정의서(이유의) .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="212">
   <si>
     <t>문제 은행 CBT 기능 정의서</t>
   </si>
@@ -353,7 +353,7 @@
     <t>O</t>
   </si>
   <si>
-    <t>- 사용자에게 수량을 입력 받는다.
+    <t>- 사용자에게 수량을 입력
 - 교재의 수량을 1씩 증가▲,감소▼</t>
   </si>
   <si>
@@ -363,114 +363,16 @@
     <t>C</t>
   </si>
   <si>
-    <t>- 교재의 정보를 장바구니에 저장한다.
-- 페이지이동 알림 팝업을 화면에 노출한다.
-- 장바구니 페이지로 이동한다.</t>
+    <t>- 교재의 정보를 장바구니에 저장
+- 페이지이동 알림 팝업을 화면에 노출
+- 장바구니 페이지로 이동</t>
   </si>
   <si>
     <t>F-BP-BS-03</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 페이지이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팝업을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>노출한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 장바구니 페이지로 이동한다.</t>
-    </r>
+    <t>- 페이지이동 알림 팝업을 화면에 노출
+- 장바구니 페이지로 이동</t>
   </si>
   <si>
     <t>F-BP-BC-01</t>
@@ -482,19 +384,19 @@
     <t>R</t>
   </si>
   <si>
-    <t>- 상품명 정보를 입력한다.</t>
+    <t>- 상품명 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BC-02</t>
   </si>
   <si>
-    <t>- 판매가 정보를 입력한다.</t>
+    <t>- 판매가 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BC-03</t>
   </si>
   <si>
-    <t>- 할인가 정보를 입력한다.</t>
+    <t>- 할인가 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BC-04</t>
@@ -520,8 +422,8 @@
     </r>
   </si>
   <si>
-    <t>- 수량 정보를 입력한다.
-- 사용자에게 수량을 입력 받는다.</t>
+    <t>- 수량 정보를 입력
+- 사용자에게 수량을 입력</t>
   </si>
   <si>
     <t>F-BP-BC-05</t>
@@ -530,31 +432,14 @@
     <t>U</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">- 교재의 수량을 수정한다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 합계액을 수정한다.</t>
-    </r>
+    <t>- 교재의 수량을 수정
+- 합계액을 수정</t>
   </si>
   <si>
     <t>F-BP-BC-06</t>
   </si>
   <si>
-    <t>- 합계액 정보를 입력한다.</t>
+    <t>- 합계액 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BC-07</t>
@@ -563,47 +448,21 @@
     <t>D</t>
   </si>
   <si>
-    <t>- 교재를 장바구니에서 삭제한다.
-- 삭제 알림 팝업을 화면에 노출한다.</t>
+    <t>- 교재를 장바구니에서 삭제
+- 삭제 알림 팝업을 화면에 노출</t>
   </si>
   <si>
     <t>F-BP-BC-08</t>
   </si>
   <si>
-    <t>- 페이지이동 알림 팝업을 화면에 노출한다.
-- 주문결제 페이지로 이동한다.</t>
+    <t>- 페이지이동 알림 팝업을 화면에 노출
+- 주문결제 페이지로 이동</t>
   </si>
   <si>
     <t>F-BP-BC-09</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교재구매 페이지로 이동한다.</t>
-    </r>
+    <t>- 교재구매 페이지로 이동</t>
   </si>
   <si>
     <t>F-BP-BO-DI-01</t>
@@ -615,140 +474,54 @@
     <t>배송 정보</t>
   </si>
   <si>
-    <t>- 회원이름 정보를 입력한다.</t>
+    <t>- 회원이름 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-DI-02</t>
   </si>
   <si>
-    <t>- 기본배송지 버튼을 선택한다.
-- 이름,주소,연락처 정보를 입력한다.</t>
+    <t>- 기본배송지 버튼을 선택
+- 이름,주소,연락처 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-DI-03</t>
   </si>
   <si>
-    <t>- 신규배송지 버튼을 선택한다.
-- 이름,주소,연락처 정보를 초기화 한다.</t>
+    <t>- 신규배송지 버튼을 선택
+- 이름,주소,연락처 정보를 초기화</t>
   </si>
   <si>
     <t>F-BP-BO-DI-04</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 사용자에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 이름을 입력받는다.</t>
-    </r>
+    <t>- 사용자에게 이름을 입력 받음</t>
   </si>
   <si>
     <t>F-BP-BO-DI-05</t>
   </si>
   <si>
-    <t>- 통신사번호 선택목록을 화면에 노출한다.
-- 통신사번호를 선택한다.</t>
+    <t>- 통신사번호 선택목록을 화면에 노출
+- 통신사번호를 선택</t>
   </si>
   <si>
     <t>F-BP-BO-DI-06</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 사용자에게 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연락처를 입력받는다.</t>
-    </r>
+    <t>- 사용자에게 연락처를 입력 받음</t>
   </si>
   <si>
     <t>F-BP-BO-DI-07</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 사용자에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소를 입력받는다.</t>
-    </r>
+    <t>- 사용자에게 주소를 입력 받음</t>
   </si>
   <si>
     <t>F-BP-BO-DI-08</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 배송시 요청사항 선택목록을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 화면에 노출한다.
-- 배송시 요청사항을 선택한다.
-- 직접입력 입력상자를 생성한다.</t>
-    </r>
+    <t>- 배송시 요청사항 선택목록을 화면에 노출
+- 배송시 요청사항을 선택
+- 직접입력 입력상자를 생성</t>
   </si>
   <si>
     <t>F-BP-BO-PI-01</t>
@@ -757,29 +530,29 @@
     <t>결제정보</t>
   </si>
   <si>
-    <t>- 무통장입금 버튼을 선택한다.
-- 무통장입금 버튼을 선택해제한다.
-- 입금은행,입금계좌,이용안내를 화면에 노출한다.
-- 입금은행,입금계좌,이용안내를 화면에서 숨긴다.</t>
+    <t>- 무통장입금 버튼을 선택
+- 무통장입금 버튼을 선택 해제
+- 입금은행,입금계좌,이용안내를 화면에 노출
+- 입금은행,입금계좌,이용안내를 화면에서 숨김</t>
   </si>
   <si>
     <t>F-BP-BO-PI-02</t>
   </si>
   <si>
-    <t>- 입금은행 선택목록을 보여준다.
-- 입금은행을 선택한다.</t>
+    <t>- 입금은행 선택목록을 화면에 노출
+- 입금은행을 선택</t>
   </si>
   <si>
     <t>F-BP-BO-PI-03</t>
   </si>
   <si>
-    <t>- 선택한 입금은행의 입금계좌를 입력한다.</t>
+    <t>- 선택한 입금은행의 입금계좌를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-PI-04</t>
   </si>
   <si>
-    <t>- 무통장입금 이용안내문을 화면에 노출한다.</t>
+    <t>- 무통장입금 이용안내문을 화면에 노출</t>
   </si>
   <si>
     <t>F-BP-BO-PL-01</t>
@@ -788,38 +561,38 @@
     <t>주문상품정보</t>
   </si>
   <si>
-    <t>- 교재의 이름 정보를 입력한다.
-- 교재의 이미지 정보를 입력한다.</t>
+    <t>- 교재의 이름 정보를 입력
+- 교재의 이미지 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-PL-02</t>
   </si>
   <si>
-    <t>- 교재의 수량 정보를 입력한다.</t>
+    <t>- 교재의 수량 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-PL-03</t>
   </si>
   <si>
-    <t>- 교재의 판매가 정보를 입력한다.</t>
+    <t>- 교재의 판매가 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-PL-04</t>
   </si>
   <si>
-    <t>- 교재의 할인금액 정보를 입력한다.</t>
+    <t>- 교재의 할인금액 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-PL-05</t>
   </si>
   <si>
-    <t>- 교재의 할인가 정보를 입력한다.</t>
+    <t>- 교재의 할인가 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-PL-06</t>
   </si>
   <si>
-    <t>- 교재의 배송비 정보를 입력한다.</t>
+    <t>- 교재의 배송비 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-OA-01</t>
@@ -828,40 +601,40 @@
     <t>주문자동의</t>
   </si>
   <si>
-    <t>- 내용보기▼ 버튼으로 변경한다.
-- 내용닫기▲ 버튼으로 변경한다. 
-- 주문자동의 상세내용을 화면에 노출한다.
-- 주문자동의 상세내용을 화면에서 숨긴다.</t>
+    <t>- 내용보기▼ 버튼으로 변경
+- 내용닫기▲ 버튼으로 변경
+- 주문자동의 상세내용을 화면에 노출
+- 주문자동의 상세내용을 화면에서 숨김</t>
   </si>
   <si>
     <t>F-BP-BO-OA-02</t>
   </si>
   <si>
-    <t>- 구매 및 결제대행서비스 이용약관 동의 체크박스를 체크한다.
-- 구매 및 결제대행서비스 이용약관 동의 체크박스를 체크 해제한다.
-- 체크박스를 모두 체크한다.
-- 체크박스를 모두 체크해제 한다.</t>
+    <t>- 구매 및 결제대행서비스 이용약관 동의 체크박스를 체크
+- 구매 및 결제대행서비스 이용약관 동의 체크박스를 체크 해제
+- 체크박스를 모두 체크
+- 체크박스를 모두 체크 해제</t>
   </si>
   <si>
     <t>F-BP-BO-OA-03</t>
   </si>
   <si>
-    <t>- 구매조건 확인 및 결제진행 동의 항목의 체크박스를 체크한다.
-- 구매조건 확인 및 결제진행 동의 항목의 체크박스를 체크 해제한다.</t>
+    <t>- 구매조건 확인 및 결제진행 동의 항목의 체크박스를 체크
+- 구매조건 확인 및 결제진행 동의 항목의 체크박스를 체크 해제</t>
   </si>
   <si>
     <t>F-BP-BO-OA-04</t>
   </si>
   <si>
-    <t>- 개인정보 수집 이용 및 제3자 정보 제공 동의 항목의 체크박스를 체크한다.
-- 개인정보 수집 이용 및 제3자 정보 제공 동의 항목의 체크박스를 체크 해제한다.</t>
+    <t>- 개인정보 수집 이용 및 제3자 정보 제공 동의 항목의 체크박스를 체크
+- 개인정보 수집 이용 및 제3자 정보 제공 동의 항목의 체크박스를 체크 해제</t>
   </si>
   <si>
     <t>F-BP-BO-OA-05</t>
   </si>
   <si>
-    <t>- 결제대행서비스 이용약관 동의 항목의 체크박스를 체크한다.
-- 결제대행서비스 이용약관 동의 항목의 체크박스를 체크 해제한다.</t>
+    <t>- 결제대행서비스 이용약관 동의 항목의 체크박스를 체크
+- 결제대행서비스 이용약관 동의 항목의 체크박스를 체크 해제</t>
   </si>
   <si>
     <t>F-BP-BO-TP-01</t>
@@ -870,50 +643,33 @@
     <t>결제금액</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 전체 상품금액의 합계를 입력한다.</t>
-    </r>
+    <t>- 전체 상품금액의 합계를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-TP-02</t>
   </si>
   <si>
-    <t>- 전체 상품금액의 배송비를 입력한다.</t>
+    <t>- 전체 상품금액의 배송비를 입력</t>
   </si>
   <si>
     <t>F-BP-BO-TP-03</t>
   </si>
   <si>
-    <t>- 전체 상품금액의 할인금액을 입력한다.</t>
+    <t>- 전체 상품금액의 할인금액을 입력</t>
   </si>
   <si>
     <t>F-BP-BO-TP-04</t>
   </si>
   <si>
-    <t>- 전체 상품금액의 최종결제금액을 입력한다.</t>
+    <t>- 전체 상품금액의 최종결제금액을 입력</t>
   </si>
   <si>
     <t>F-BP-BO-TP-05</t>
   </si>
   <si>
-    <t>- 배송정보,결제정보,주문자동의 입력 여부를 검사하여 알림팝업을 노출한다.
-- 페이지이동 알림 팝업이 화면에 노출된다.
-- 결제완료 페이지로 이동한다.</t>
+    <t>- 배송정보,결제정보,주문자동의 입력 여부를 검사하여 알림 팝업을 화면에 노출
+- 페이지이동 알림 팝업을 화면에 노출
+- 결제완료 페이지로 이동</t>
   </si>
   <si>
     <t>F-BP-OC-DI-01</t>
@@ -925,89 +681,52 @@
     <t>배송지정보</t>
   </si>
   <si>
-    <t>- 이름 정보를 입력한다.</t>
+    <t>- 이름 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-OC-DI-02</t>
   </si>
   <si>
-    <t>- 연락처 정보를 입력한다.</t>
+    <t>- 연락처 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-OC-DI-03</t>
   </si>
   <si>
-    <t>- 주소 정보를 입력한다.</t>
+    <t>- 주소 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-OC-DI-04</t>
   </si>
   <si>
-    <t>- 배송시 요청사항 정보를 입력한다.</t>
+    <t>- 배송시 요청사항 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-OC-PI-01</t>
   </si>
   <si>
-    <t>- 결제수단 정보를 입력한다.</t>
+    <t>- 결제수단 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-OC-PI-02</t>
   </si>
   <si>
-    <t>- 입금은행,입금계좌 정보를 입력한다.</t>
+    <t>- 입금은행,입금계좌 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-OC-PI-03</t>
   </si>
   <si>
-    <t>- 결제금액 정보를 입력한다.</t>
+    <t>- 결제금액 정보를 입력</t>
   </si>
   <si>
     <t>F-BP-OC-PI-04</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 교재구매 페이지로 이동한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>F-BP-OC-PI-05</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 마이페이지 페이지로 이동한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>- 마이페이지 페이지로 이동</t>
   </si>
 </sst>
 </file>
@@ -1015,25 +734,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1080,38 +793,9 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,22 +808,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1155,7 +833,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1163,39 +841,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,7 +863,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1219,6 +873,65 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,31 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,103 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,13 +1018,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,17 +1321,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1628,35 +1337,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1676,6 +1356,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1687,6 +1376,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1705,12 +1403,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,134 +1441,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1892,10 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1904,37 +1614,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -1967,61 +1674,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
@@ -2036,7 +1743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2405,1228 +2112,1228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="54"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="54"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="54"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="54"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="55"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="8" ht="32.25" customHeight="1" spans="1:11">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="56"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" ht="26.25" customHeight="1" spans="1:11">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="57" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>1.01</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <v>43717</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="58" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29">
         <v>43719</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="58" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29">
         <v>43720</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="58" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29">
         <v>43723</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="58" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29">
         <v>43728</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="58" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="58"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="58"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="58"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="58"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="30"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="58"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="30"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="58"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="58"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="58"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="30"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="58"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="30"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="58"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="30"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="58"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="58"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="30"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="58"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="30"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="58"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="30"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="58"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="30"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="58"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="30"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="58"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="30"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="58"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="59"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="57"/>
     </row>
     <row r="35" ht="32.25" customHeight="1" spans="1:11">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="56"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="54"/>
     </row>
     <row r="36" ht="26.25" customHeight="1" spans="1:11">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="57" t="s">
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="58"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="56"/>
     </row>
     <row r="38" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="58"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="56"/>
     </row>
     <row r="39" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="58"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="56"/>
     </row>
     <row r="40" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="58"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="56"/>
     </row>
     <row r="41" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="58"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="56"/>
     </row>
     <row r="42" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="58"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="56"/>
     </row>
     <row r="43" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="58"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="56"/>
     </row>
     <row r="44" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="58"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="56"/>
     </row>
     <row r="45" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="58"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="56"/>
     </row>
     <row r="46" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="58"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="56"/>
     </row>
     <row r="47" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="58"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="56"/>
     </row>
     <row r="48" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="58"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="56"/>
     </row>
     <row r="49" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="58"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="56"/>
     </row>
     <row r="50" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="58"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="56"/>
     </row>
     <row r="51" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="58"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="56"/>
     </row>
     <row r="52" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="58"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="56"/>
     </row>
     <row r="53" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="58"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="56"/>
     </row>
     <row r="54" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="58"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="56"/>
     </row>
     <row r="55" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="58"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="56"/>
     </row>
     <row r="56" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="58"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="56"/>
     </row>
     <row r="57" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="58"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="56"/>
     </row>
     <row r="58" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="58"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="56"/>
     </row>
     <row r="59" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="58"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="56"/>
     </row>
     <row r="60" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="58"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="56"/>
     </row>
     <row r="61" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="58"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="56"/>
     </row>
     <row r="62" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="58"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="56"/>
     </row>
     <row r="63" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="58"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="56"/>
     </row>
     <row r="64" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="58"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="56"/>
     </row>
     <row r="65" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="58"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="56"/>
     </row>
     <row r="66" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="58"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="56"/>
     </row>
     <row r="67" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="58"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="56"/>
     </row>
     <row r="68" ht="17.25" spans="1:11">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="58"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="56"/>
     </row>
     <row r="69" ht="17.25" spans="1:11">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="58"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="56"/>
     </row>
     <row r="70" ht="17.25" spans="1:13">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
     </row>
     <row r="71" ht="17.25" spans="1:13">
-      <c r="A71" s="40"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
     </row>
     <row r="72" ht="17.25" spans="1:13">
-      <c r="A72" s="40"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
     </row>
     <row r="73" ht="17.25" spans="1:13">
-      <c r="A73" s="40"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="59"/>
     </row>
     <row r="74" ht="17.25" spans="1:13">
-      <c r="A74" s="40"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
     </row>
     <row r="75" ht="17.25" spans="1:13">
-      <c r="A75" s="40"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
     </row>
     <row r="76" ht="17.25" spans="1:13">
-      <c r="A76" s="40"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
     </row>
     <row r="77" ht="17.25" spans="1:13">
-      <c r="A77" s="40"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="59"/>
     </row>
     <row r="78" ht="17.25" spans="1:13">
-      <c r="A78" s="40"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
     </row>
     <row r="79" ht="17.25" spans="1:13">
-      <c r="A79" s="40"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="61"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
     </row>
     <row r="80" ht="17.25" spans="1:13">
-      <c r="A80" s="40"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="118">
@@ -3758,12 +3465,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3811,13 +3518,13 @@
       <c r="K1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" ht="33" spans="1:18">
       <c r="A2" s="4"/>
@@ -3837,13 +3544,13 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:18">
       <c r="A3" s="5"/>
@@ -3864,20 +3571,18 @@
       <c r="H3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:18">
       <c r="A4" s="5"/>
@@ -3900,16 +3605,16 @@
         <v>101</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" ht="34.95" customHeight="1" spans="1:18">
       <c r="A5" s="5"/>
@@ -3926,20 +3631,18 @@
       <c r="H5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" ht="16.5" spans="1:18">
       <c r="A6" s="5"/>
@@ -3964,16 +3667,16 @@
         <v>101</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" ht="16.5" spans="1:18">
       <c r="A7" s="5"/>
@@ -3996,16 +3699,16 @@
         <v>101</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" ht="16.5" spans="1:18">
       <c r="A8" s="5"/>
@@ -4028,16 +3731,16 @@
         <v>101</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" ht="33" spans="1:18">
       <c r="A9" s="5"/>
@@ -4047,7 +3750,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -4060,16 +3763,16 @@
         <v>101</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" ht="33" spans="1:18">
       <c r="A10" s="5"/>
@@ -4092,16 +3795,16 @@
         <v>101</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" ht="16.5" spans="1:18">
       <c r="A11" s="5"/>
@@ -4124,16 +3827,16 @@
         <v>101</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" ht="33" spans="1:18">
       <c r="A12" s="5"/>
@@ -4156,16 +3859,16 @@
         <v>101</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" ht="33" spans="1:18">
       <c r="A13" s="5"/>
@@ -4182,20 +3885,18 @@
       <c r="H13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" ht="16.5" spans="1:18">
       <c r="A14" s="5"/>
@@ -4214,16 +3915,16 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" ht="16.5" spans="1:18">
       <c r="A15" s="5"/>
@@ -4240,20 +3941,26 @@
       <c r="F15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" ht="33" spans="1:18">
       <c r="A16" s="5"/>
@@ -4276,16 +3983,16 @@
         <v>101</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" ht="33" spans="1:18">
       <c r="A17" s="5"/>
@@ -4302,20 +4009,18 @@
       <c r="H17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" ht="16.5" spans="1:18">
       <c r="A18" s="5"/>
@@ -4332,20 +4037,18 @@
       <c r="H18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" ht="33" spans="1:18">
       <c r="A19" s="5"/>
@@ -4362,20 +4065,18 @@
       <c r="H19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" ht="16.5" spans="1:18">
       <c r="A20" s="5"/>
@@ -4392,20 +4093,18 @@
       <c r="H20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" ht="16.5" spans="1:11">
       <c r="A21" s="5"/>
@@ -4422,11 +4121,9 @@
       <c r="H21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4445,11 +4142,9 @@
       <c r="H22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4471,17 +4166,17 @@
         <v>101</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18" t="s">
+      <c r="J23" s="17"/>
+      <c r="K23" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" ht="33" spans="1:18">
       <c r="A24" s="5"/>
@@ -4500,16 +4195,16 @@
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" ht="16.5" spans="1:18">
       <c r="A25" s="5"/>
@@ -4528,16 +4223,16 @@
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
     </row>
     <row r="26" ht="16.5" spans="1:18">
       <c r="A26" s="5"/>
@@ -4556,20 +4251,20 @@
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
     </row>
     <row r="27" ht="33" spans="1:18">
       <c r="A27" s="5"/>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C27" s="9"/>
@@ -4590,20 +4285,20 @@
         <v>101</v>
       </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
     </row>
     <row r="28" ht="16.5" spans="1:18">
       <c r="A28" s="5"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C28" s="9"/>
@@ -4620,20 +4315,20 @@
         <v>101</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" ht="16.5" spans="1:18">
       <c r="A29" s="5"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>163</v>
       </c>
       <c r="C29" s="9"/>
@@ -4650,20 +4345,20 @@
         <v>101</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
     </row>
     <row r="30" ht="16.5" spans="1:18">
       <c r="A30" s="5"/>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C30" s="9"/>
@@ -4680,20 +4375,20 @@
         <v>101</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
     </row>
     <row r="31" ht="16.5" spans="1:11">
       <c r="A31" s="5"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>167</v>
       </c>
       <c r="C31" s="9"/>
@@ -4710,13 +4405,13 @@
         <v>101</v>
       </c>
       <c r="J31" s="6"/>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:11">
       <c r="A32" s="5"/>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C32" s="9"/>
@@ -4733,7 +4428,7 @@
         <v>101</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="15" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4756,7 +4451,7 @@
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4777,7 +4472,7 @@
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="15" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4798,7 +4493,7 @@
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4819,7 +4514,7 @@
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="15" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4830,7 +4525,7 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
         <v>101</v>
@@ -4840,7 +4535,7 @@
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="15" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4860,12 +4555,14 @@
       <c r="G38" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I38" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J38" s="6"/>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="15" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4881,12 +4578,14 @@
       <c r="G39" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I39" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J39" s="6"/>
-      <c r="K39" s="18" t="s">
+      <c r="K39" s="15" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4902,12 +4601,14 @@
       <c r="G40" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J40" s="6"/>
-      <c r="K40" s="18" t="s">
+      <c r="K40" s="15" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4923,12 +4624,14 @@
       <c r="G41" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I41" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J41" s="6"/>
-      <c r="K41" s="18" t="s">
+      <c r="K41" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4938,20 +4641,22 @@
         <v>191</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="6" t="s">
         <v>104</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I42" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J42" s="6"/>
-      <c r="K42" s="18" t="s">
+      <c r="K42" s="15" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4978,16 +4683,16 @@
         <v>101</v>
       </c>
       <c r="J43" s="6"/>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
     </row>
     <row r="44" ht="16.5" spans="1:11">
       <c r="A44" s="5"/>
@@ -5006,7 +4711,7 @@
         <v>101</v>
       </c>
       <c r="J44" s="6"/>
-      <c r="K44" s="18" t="s">
+      <c r="K44" s="15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5027,7 +4732,7 @@
         <v>101</v>
       </c>
       <c r="J45" s="6"/>
-      <c r="K45" s="18" t="s">
+      <c r="K45" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5038,7 +4743,7 @@
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="14"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="11"/>
       <c r="G46" s="6" t="s">
         <v>101</v>
@@ -5048,7 +4753,7 @@
         <v>101</v>
       </c>
       <c r="J46" s="6"/>
-      <c r="K46" s="18" t="s">
+      <c r="K46" s="15" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5073,7 +4778,7 @@
         <v>101</v>
       </c>
       <c r="J47" s="6"/>
-      <c r="K47" s="18" t="s">
+      <c r="K47" s="15" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5094,7 +4799,7 @@
         <v>101</v>
       </c>
       <c r="J48" s="6"/>
-      <c r="K48" s="18" t="s">
+      <c r="K48" s="15" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5115,7 +4820,7 @@
         <v>101</v>
       </c>
       <c r="J49" s="6"/>
-      <c r="K49" s="18" t="s">
+      <c r="K49" s="15" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5131,35 +4836,44 @@
       <c r="G50" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="18" t="s">
-        <v>210</v>
+      <c r="K50" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:11">
       <c r="A51" s="5"/>
       <c r="B51" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+        <v>210</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="18" t="s">
-        <v>212</v>
+      <c r="K51" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="1"/>
       <c r="K52" s="1"/>
+    </row>
+    <row r="1048576" ht="16.5" spans="8:8">
+      <c r="H1048576" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
